--- a/会员体系/会员分析/会员分析报告/会员分析报告201907/分析报告/会员分析v1.14/会员分析数据_20191231(BUG修复).xlsx
+++ b/会员体系/会员分析/会员分析报告/会员分析报告201907/分析报告/会员分析v1.14/会员分析数据_20191231(BUG修复).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\益丰EB\会员体系\会员分析\会员分析报告\会员分析报告201907\分析报告\会员分析v1.14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F57F4C-8658-4A87-9115-0EAA82A98FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3D161A-ACAC-4C55-B37B-53050C1A821B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70" yWindow="80" windowWidth="6820" windowHeight="9820" tabRatio="954" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="954" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="会员现状" sheetId="4" r:id="rId1"/>
@@ -20308,7 +20308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A3:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="F12" sqref="F12:F21"/>
     </sheetView>
   </sheetViews>
@@ -38308,10 +38308,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A3:E7"/>
+  <dimension ref="A3:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -38320,6 +38320,7 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -38358,36 +38359,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="1">
-        <v>3224472</v>
+        <v>4397576</v>
       </c>
       <c r="C5" s="3">
-        <v>883144570.21000004</v>
+        <v>1101668163.3900001</v>
       </c>
       <c r="D5">
-        <v>2.8912450000000001</v>
+        <v>2.7927599999999999</v>
       </c>
       <c r="E5">
-        <v>273.88810000000001</v>
+        <v>250.5171</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B6" s="1">
-        <v>4397576</v>
+        <v>3224472</v>
       </c>
       <c r="C6" s="3">
-        <v>1101668163.3900001</v>
+        <v>883144570.21000004</v>
       </c>
       <c r="D6">
-        <v>2.7927599999999999</v>
+        <v>2.8912450000000001</v>
       </c>
       <c r="E6">
-        <v>250.5171</v>
+        <v>273.88810000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -38407,7 +38408,22 @@
         <v>272.64519999999999</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+    </row>
   </sheetData>
+  <sortState ref="E11:E14">
+    <sortCondition ref="E11"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -38421,8 +38437,8 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
